--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H2">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>148.901599011724</v>
+        <v>23.9258976828249</v>
       </c>
       <c r="R2">
-        <v>1340.114391105516</v>
+        <v>215.3330791454241</v>
       </c>
       <c r="S2">
-        <v>0.004898298089232446</v>
+        <v>0.00212026028796359</v>
       </c>
       <c r="T2">
-        <v>0.004898298089232445</v>
+        <v>0.002120260287963589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H3">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I3">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J3">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>79.49829058054002</v>
+        <v>14.96375838191556</v>
       </c>
       <c r="R3">
-        <v>715.48461522486</v>
+        <v>134.67382543724</v>
       </c>
       <c r="S3">
-        <v>0.002615192364839845</v>
+        <v>0.001326055267662245</v>
       </c>
       <c r="T3">
-        <v>0.002615192364839845</v>
+        <v>0.001326055267662245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H4">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I4">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J4">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>178.835031736192</v>
+        <v>16.77545057190845</v>
       </c>
       <c r="R4">
-        <v>1609.515285625728</v>
+        <v>150.979055147176</v>
       </c>
       <c r="S4">
-        <v>0.005882994541732496</v>
+        <v>0.001486603434146011</v>
       </c>
       <c r="T4">
-        <v>0.005882994541732495</v>
+        <v>0.00148660343414601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H5">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I5">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J5">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>13.61103656848</v>
+        <v>2.150324491791111</v>
       </c>
       <c r="R5">
-        <v>122.49932911632</v>
+        <v>19.35292042612</v>
       </c>
       <c r="S5">
-        <v>0.0004477515007116149</v>
+        <v>0.000190557014270483</v>
       </c>
       <c r="T5">
-        <v>0.0004477515007116148</v>
+        <v>0.000190557014270483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H6">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I6">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J6">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>109.9114837070641</v>
+        <v>17.00451804076178</v>
       </c>
       <c r="R6">
-        <v>989.2033533635763</v>
+        <v>153.040662366856</v>
       </c>
       <c r="S6">
-        <v>0.003615671115691812</v>
+        <v>0.001506902888064628</v>
       </c>
       <c r="T6">
-        <v>0.00361567111569181</v>
+        <v>0.001506902888064628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.923774</v>
       </c>
       <c r="I7">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J7">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>167.065857123666</v>
+        <v>142.617784637436</v>
       </c>
       <c r="R7">
-        <v>1503.592714112994</v>
+        <v>1283.560061736924</v>
       </c>
       <c r="S7">
-        <v>0.005495833316473657</v>
+        <v>0.01263847355416748</v>
       </c>
       <c r="T7">
-        <v>0.005495833316473657</v>
+        <v>0.01263847355416747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.923774</v>
       </c>
       <c r="I8">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J8">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>89.19615466761</v>
@@ -948,10 +948,10 @@
         <v>802.7653920084899</v>
       </c>
       <c r="S8">
-        <v>0.002934215326598575</v>
+        <v>0.007904366518985408</v>
       </c>
       <c r="T8">
-        <v>0.002934215326598574</v>
+        <v>0.007904366518985408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.923774</v>
       </c>
       <c r="I9">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J9">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>200.650819460928</v>
+        <v>99.995311715214</v>
       </c>
       <c r="R9">
-        <v>1805.857375148352</v>
+        <v>899.957805436926</v>
       </c>
       <c r="S9">
-        <v>0.006600651249493982</v>
+        <v>0.00886136400075402</v>
       </c>
       <c r="T9">
-        <v>0.006600651249493981</v>
+        <v>0.008861364000754018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.923774</v>
       </c>
       <c r="I10">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J10">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>15.27142425432</v>
+        <v>12.81768062943</v>
       </c>
       <c r="R10">
-        <v>137.44281828888</v>
+        <v>115.35912566487</v>
       </c>
       <c r="S10">
-        <v>0.0005023719606859552</v>
+        <v>0.001135874590063525</v>
       </c>
       <c r="T10">
-        <v>0.0005023719606859551</v>
+        <v>0.001135874590063525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.923774</v>
       </c>
       <c r="I11">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J11">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>123.319402579476</v>
+        <v>101.360739895734</v>
       </c>
       <c r="R11">
-        <v>1109.874623215284</v>
+        <v>912.2466590616059</v>
       </c>
       <c r="S11">
-        <v>0.004056740814266023</v>
+        <v>0.008982365234881219</v>
       </c>
       <c r="T11">
-        <v>0.004056740814266022</v>
+        <v>0.008982365234881219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H12">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I12">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J12">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>4241.048284359395</v>
+        <v>2067.040927925435</v>
       </c>
       <c r="R12">
-        <v>38169.43455923455</v>
+        <v>18603.36835132892</v>
       </c>
       <c r="S12">
-        <v>0.1395144098216467</v>
+        <v>0.1831766085091046</v>
       </c>
       <c r="T12">
-        <v>0.1395144098216467</v>
+        <v>0.1831766085091046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H13">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I13">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J13">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>2264.287899618575</v>
+        <v>1292.770763339435</v>
       </c>
       <c r="R13">
-        <v>20378.59109656717</v>
+        <v>11634.93687005491</v>
       </c>
       <c r="S13">
-        <v>0.07448648749098075</v>
+        <v>0.1145624940508126</v>
       </c>
       <c r="T13">
-        <v>0.07448648749098075</v>
+        <v>0.1145624940508126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H14">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J14">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>5093.618937352159</v>
+        <v>1449.289108237582</v>
       </c>
       <c r="R14">
-        <v>45842.57043616943</v>
+        <v>13043.60197413824</v>
       </c>
       <c r="S14">
-        <v>0.1675607520248711</v>
+        <v>0.1284328045998523</v>
       </c>
       <c r="T14">
-        <v>0.1675607520248711</v>
+        <v>0.1284328045998523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H15">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I15">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J15">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>387.6725546953999</v>
+        <v>185.7739589032589</v>
       </c>
       <c r="R15">
-        <v>3489.0529922586</v>
+        <v>1671.96563012933</v>
       </c>
       <c r="S15">
-        <v>0.01275295729875152</v>
+        <v>0.01646287854365905</v>
       </c>
       <c r="T15">
-        <v>0.01275295729875152</v>
+        <v>0.01646287854365905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H16">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I16">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J16">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>3130.523194519471</v>
+        <v>1469.079037946928</v>
       </c>
       <c r="R16">
-        <v>28174.70875067523</v>
+        <v>13221.71134152235</v>
       </c>
       <c r="S16">
-        <v>0.1029823446073619</v>
+        <v>0.1301865445272131</v>
       </c>
       <c r="T16">
-        <v>0.1029823446073618</v>
+        <v>0.1301865445272131</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H17">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I17">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J17">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>60.83254280207333</v>
+        <v>51.98112311576223</v>
       </c>
       <c r="R17">
-        <v>547.49288521866</v>
+        <v>467.8301080418601</v>
       </c>
       <c r="S17">
-        <v>0.002001160028826051</v>
+        <v>0.004606452494579258</v>
       </c>
       <c r="T17">
-        <v>0.002001160028826051</v>
+        <v>0.004606452494579257</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H18">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I18">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J18">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>32.47838301623334</v>
+        <v>32.51008497303889</v>
       </c>
       <c r="R18">
-        <v>292.3054471461</v>
+        <v>292.59076475735</v>
       </c>
       <c r="S18">
-        <v>0.001068415668640665</v>
+        <v>0.002880972034588997</v>
       </c>
       <c r="T18">
-        <v>0.001068415668640665</v>
+        <v>0.002880972034588996</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H19">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I19">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J19">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>73.06160440725333</v>
+        <v>36.44614605732111</v>
       </c>
       <c r="R19">
-        <v>657.55443966528</v>
+        <v>328.01531451589</v>
       </c>
       <c r="S19">
-        <v>0.002403449792611883</v>
+        <v>0.0032297770875335</v>
       </c>
       <c r="T19">
-        <v>0.002403449792611883</v>
+        <v>0.0032297770875335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H20">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I20">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J20">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>5.560678798133334</v>
+        <v>4.671769629227777</v>
       </c>
       <c r="R20">
-        <v>50.0461091832</v>
+        <v>42.04592666305</v>
       </c>
       <c r="S20">
-        <v>0.000182925250719351</v>
+        <v>0.0004140019217116591</v>
       </c>
       <c r="T20">
-        <v>0.000182925250719351</v>
+        <v>0.0004140019217116591</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H21">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I21">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J21">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>44.90344684964001</v>
+        <v>36.94381533845444</v>
       </c>
       <c r="R21">
-        <v>404.1310216467601</v>
+        <v>332.49433804609</v>
       </c>
       <c r="S21">
-        <v>0.001477153162648201</v>
+        <v>0.003273879441698621</v>
       </c>
       <c r="T21">
-        <v>0.001477153162648201</v>
+        <v>0.003273879441698621</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="H22">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="I22">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="J22">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>3910.352570847979</v>
+        <v>1322.960728272152</v>
       </c>
       <c r="R22">
-        <v>35193.17313763181</v>
+        <v>11906.64655444937</v>
       </c>
       <c r="S22">
-        <v>0.1286357745862871</v>
+        <v>0.117237862164077</v>
       </c>
       <c r="T22">
-        <v>0.1286357745862871</v>
+        <v>0.117237862164077</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="H23">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="I23">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="J23">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>2087.730064773567</v>
+        <v>827.4073954950638</v>
       </c>
       <c r="R23">
-        <v>18789.5705829621</v>
+        <v>7446.666559455575</v>
       </c>
       <c r="S23">
-        <v>0.06867840409362097</v>
+        <v>0.07332301867590525</v>
       </c>
       <c r="T23">
-        <v>0.06867840409362096</v>
+        <v>0.07332301867590522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="H24">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="I24">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="J24">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>4696.444032493145</v>
+        <v>927.5832656275561</v>
       </c>
       <c r="R24">
-        <v>42267.9962924383</v>
+        <v>8348.249390648005</v>
       </c>
       <c r="S24">
-        <v>0.1544952034312068</v>
+        <v>0.08220038336540615</v>
       </c>
       <c r="T24">
-        <v>0.1544952034312068</v>
+        <v>0.08220038336540614</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="H25">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="I25">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="J25">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>357.4437896618622</v>
+        <v>118.9002349418028</v>
       </c>
       <c r="R25">
-        <v>3216.99410695676</v>
+        <v>1070.102114476225</v>
       </c>
       <c r="S25">
-        <v>0.01175854553295191</v>
+        <v>0.0105366766053511</v>
       </c>
       <c r="T25">
-        <v>0.01175854553295191</v>
+        <v>0.0105366766053511</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.41537433333333</v>
+        <v>15.22474833333333</v>
       </c>
       <c r="H26">
-        <v>115.246123</v>
+        <v>45.674245</v>
       </c>
       <c r="I26">
-        <v>0.4585202245732156</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="J26">
-        <v>0.4585202245732155</v>
+        <v>0.3666207639982877</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>2886.420667959336</v>
+        <v>940.2493427559893</v>
       </c>
       <c r="R26">
-        <v>25977.78601163402</v>
+        <v>8462.244084803904</v>
       </c>
       <c r="S26">
-        <v>0.09495229692914871</v>
+        <v>0.0833228231875483</v>
       </c>
       <c r="T26">
-        <v>0.09495229692914869</v>
+        <v>0.08332282318754827</v>
       </c>
     </row>
   </sheetData>
